--- a/docs/Scenario/ScenarioForDemo.xlsx
+++ b/docs/Scenario/ScenarioForDemo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B84B0-D4DD-4E0B-BC8E-999804663BD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A1AD5-7F23-4B9A-8C44-C1E80C9AB99C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Require Condition</t>
   </si>
@@ -136,6 +136,31 @@
   </si>
   <si>
     <t>Thông tin và tình trạng của thân nhân được hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm Phạm Nhân </t>
+  </si>
+  <si>
+    <t>Gợi Ý Khẩu Phần Ăn</t>
+  </si>
+  <si>
+    <t>Xuất Danh Sách Phạm Nhân Tiếp Nhận, Phóng Thích</t>
+  </si>
+  <si>
+    <t>Danh Sách Phạm Nhân</t>
+  </si>
+  <si>
+    <t>Tình Trạng Cải Tạo</t>
+  </si>
+  <si>
+    <t>Tình trạng phạm nhân</t>
+  </si>
+  <si>
+    <t>Danh Sách Phạm Nhân Chăm Sóc Trong Ngày
+Cập Nhật Tình Trạng Sức Khỏe Phạm Nhân</t>
+  </si>
+  <si>
+    <t>Screen</t>
   </si>
 </sst>
 </file>
@@ -183,7 +208,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -219,14 +247,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6EF9155-F8A7-4D52-AAB0-85EA2C7D024E}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:E9" xr:uid="{2E5F5CA1-0DBC-4B2F-8F34-D4626E2E65B0}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8308687C-2D81-41B4-A6FC-64DB3A7DB8D7}" name="Scenario ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{489F0ADD-3B9D-4911-9A0E-C65ADFE5FD4B}" name="Describe" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{057BE7F2-78A8-4908-9723-9A08B9903565}" name="Require Condition" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{52AFF4FF-F8A6-412D-B4B7-DB843836E6E4}" name="Steps" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{296BB813-C050-4107-B33F-5DFD0A7F6125}" name="Expection" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6EF9155-F8A7-4D52-AAB0-85EA2C7D024E}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F9" xr:uid="{2E5F5CA1-0DBC-4B2F-8F34-D4626E2E65B0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8308687C-2D81-41B4-A6FC-64DB3A7DB8D7}" name="Scenario ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{489F0ADD-3B9D-4911-9A0E-C65ADFE5FD4B}" name="Describe" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{057BE7F2-78A8-4908-9723-9A08B9903565}" name="Require Condition" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{BB97F8AC-1FA3-4C11-97A6-22F3C3968914}" name="Screen" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{52AFF4FF-F8A6-412D-B4B7-DB843836E6E4}" name="Steps" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{296BB813-C050-4107-B33F-5DFD0A7F6125}" name="Expection" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,23 +524,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="4" width="29.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -522,13 +551,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -539,13 +571,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -556,13 +591,16 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -573,13 +611,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -590,13 +631,16 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -607,13 +651,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -624,13 +671,16 @@
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -641,13 +691,16 @@
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -658,14 +711,17 @@
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
